--- a/Spreadsheet Applications/Creating Charts, Diagrams, and Templates/Attendance.xlsx
+++ b/Spreadsheet Applications/Creating Charts, Diagrams, and Templates/Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Creating Charts^J Diagrams^J and Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="11_0A17EF92433622EE191DAFB506E8CD250EC25D0F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A07FA96-B745-4FCE-B18A-7B84A532B3B1}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_0A17EF92433622EE191DAFB506E8CD250EC25D0F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1595C9D-8861-45DD-B72F-7FCDA25A4053}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance by Location" sheetId="1" r:id="rId1"/>
@@ -587,6 +587,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -594,7 +595,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2682,7 +2682,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{05CB6FCB-B1C2-4707-A0DE-E0AF074234EC}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5329,8 +5329,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="613920" y="798138"/>
-          <a:ext cx="705885" cy="803625"/>
+          <a:off x="733171" y="829307"/>
+          <a:ext cx="733451" cy="835008"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst>
@@ -5416,8 +5416,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="426903" y="15651"/>
-          <a:ext cx="1188294" cy="831767"/>
+          <a:off x="538851" y="16262"/>
+          <a:ext cx="1234699" cy="864249"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5517,8 +5517,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="467514" y="56262"/>
-        <a:ext cx="1107072" cy="750545"/>
+        <a:off x="581048" y="58459"/>
+        <a:ext cx="1150305" cy="779855"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A4A8FA3F-B19C-445A-AE7D-5ACD5DF5D191}">
@@ -5528,8 +5528,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1615198" y="94979"/>
-          <a:ext cx="864252" cy="672271"/>
+          <a:off x="1773551" y="98688"/>
+          <a:ext cx="898002" cy="698524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5553,12 +5553,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64770" tIns="64770" rIns="64770" bIns="64770" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5571,14 +5571,14 @@
             <a:buChar char="•"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
             <a:t>Register for Booth</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1615198" y="94979"/>
-        <a:ext cx="864252" cy="672271"/>
+        <a:off x="1773551" y="98688"/>
+        <a:ext cx="898002" cy="698524"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{87B37E2E-9523-445E-A116-FC73EED6AB2C}">
@@ -5588,8 +5588,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1599142" y="1732488"/>
-          <a:ext cx="705885" cy="803625"/>
+          <a:off x="1756868" y="1800145"/>
+          <a:ext cx="733451" cy="835008"/>
         </a:xfrm>
         <a:prstGeom prst="bentUpArrow">
           <a:avLst>
@@ -5675,8 +5675,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1412126" y="950001"/>
-          <a:ext cx="1188294" cy="831767"/>
+          <a:off x="1562548" y="987100"/>
+          <a:ext cx="1234699" cy="864249"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5776,8 +5776,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1452737" y="990612"/>
-        <a:ext cx="1107072" cy="750545"/>
+        <a:off x="1604745" y="1029297"/>
+        <a:ext cx="1150305" cy="779855"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B4D2A32F-3A6F-41AF-86B0-D25435BA0E43}">
@@ -5787,8 +5787,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2600421" y="1029329"/>
-          <a:ext cx="864252" cy="672271"/>
+          <a:off x="2797248" y="1069526"/>
+          <a:ext cx="898002" cy="698524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5812,12 +5812,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64770" tIns="64770" rIns="64770" bIns="64770" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -5830,14 +5830,14 @@
             <a:buChar char="•"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
             <a:t>Booth Number Assigned</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2600421" y="1029329"/>
-        <a:ext cx="864252" cy="672271"/>
+        <a:off x="2797248" y="1069526"/>
+        <a:ext cx="898002" cy="698524"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B5D884F0-260E-4940-8B4E-E639FD4C1468}">
@@ -5847,8 +5847,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2397349" y="1884350"/>
-          <a:ext cx="1188294" cy="831767"/>
+          <a:off x="2586245" y="1957937"/>
+          <a:ext cx="1234699" cy="864249"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5948,8 +5948,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2437960" y="1924961"/>
-        <a:ext cx="1107072" cy="750545"/>
+        <a:off x="2628442" y="2000134"/>
+        <a:ext cx="1150305" cy="779855"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{46BE2E91-6721-40A6-96AB-15C5A6F6E40D}">
@@ -5959,8 +5959,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3585644" y="1963678"/>
-          <a:ext cx="864252" cy="672271"/>
+          <a:off x="3820945" y="2040363"/>
+          <a:ext cx="898002" cy="698524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5984,12 +5984,12 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64770" tIns="64770" rIns="64770" bIns="64770" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="533400">
+          <a:pPr marL="114300" lvl="1" indent="-114300" algn="l" defTabSz="577850">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6002,14 +6002,14 @@
             <a:buChar char="•"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200"/>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
             <a:t>Set Up Job Fair Booth</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3585644" y="1963678"/>
-        <a:ext cx="864252" cy="672271"/>
+        <a:off x="3820945" y="2040363"/>
+        <a:ext cx="898002" cy="698524"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -6031,8 +6031,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3342538" y="1702968"/>
-          <a:ext cx="198820" cy="609717"/>
+          <a:off x="3604083" y="1786046"/>
+          <a:ext cx="214378" cy="657426"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6046,10 +6046,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="609717"/>
+                <a:pt x="0" y="657426"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="198820" y="609717"/>
+                <a:pt x="214378" y="657426"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6095,8 +6095,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2268905" y="761882"/>
-          <a:ext cx="1603821" cy="278349"/>
+          <a:off x="2446441" y="771323"/>
+          <a:ext cx="1729316" cy="300129"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6110,13 +6110,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="139174"/>
+                <a:pt x="0" y="150064"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1603821" y="139174"/>
+                <a:pt x="1729316" y="150064"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1603821" y="278349"/>
+                <a:pt x="1729316" y="300129"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6162,8 +6162,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2223185" y="761882"/>
-          <a:ext cx="91440" cy="278349"/>
+          <a:off x="2400721" y="771323"/>
+          <a:ext cx="91440" cy="300129"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6177,7 +6177,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="278349"/>
+                <a:pt x="45720" y="300129"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6223,8 +6223,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="665084" y="761882"/>
-          <a:ext cx="1603821" cy="278349"/>
+          <a:off x="717125" y="771323"/>
+          <a:ext cx="1729316" cy="300129"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6235,16 +6235,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1603821" y="0"/>
+                <a:pt x="1729316" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1603821" y="139174"/>
+                <a:pt x="1729316" y="150064"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="139174"/>
+                <a:pt x="0" y="150064"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="278349"/>
+                <a:pt x="0" y="300129"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -6290,8 +6290,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1606169" y="99146"/>
-          <a:ext cx="1325472" cy="662736"/>
+          <a:off x="1731848" y="56730"/>
+          <a:ext cx="1429187" cy="714593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6365,12 +6365,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6383,14 +6383,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
             <a:t>Amanda Shy, Job Fair Director</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1606169" y="99146"/>
-        <a:ext cx="1325472" cy="662736"/>
+        <a:off x="1731848" y="56730"/>
+        <a:ext cx="1429187" cy="714593"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{10F95C6A-18AB-4274-8C56-AC6A6BEF939A}">
@@ -6400,8 +6400,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2347" y="1040231"/>
-          <a:ext cx="1325472" cy="662736"/>
+          <a:off x="2531" y="1071453"/>
+          <a:ext cx="1429187" cy="714593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6475,12 +6475,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6493,14 +6493,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
             <a:t>Linda Wong, Employer Relations Manager</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2347" y="1040231"/>
-        <a:ext cx="1325472" cy="662736"/>
+        <a:off x="2531" y="1071453"/>
+        <a:ext cx="1429187" cy="714593"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FD124898-EE64-43A7-AD13-C20B9C666D5E}">
@@ -6510,8 +6510,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1606169" y="1040231"/>
-          <a:ext cx="1325472" cy="662736"/>
+          <a:off x="1731848" y="1071453"/>
+          <a:ext cx="1429187" cy="714593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6585,12 +6585,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6603,14 +6603,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
             <a:t>Miriam Ruiz, Job Applicant Program Manager</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1606169" y="1040231"/>
-        <a:ext cx="1325472" cy="662736"/>
+        <a:off x="1731848" y="1071453"/>
+        <a:ext cx="1429187" cy="714593"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0BFC58B7-5AC1-4473-8283-A6F95F554BA8}">
@@ -6620,8 +6620,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3209991" y="1040231"/>
-          <a:ext cx="1325472" cy="662736"/>
+          <a:off x="3461164" y="1071453"/>
+          <a:ext cx="1429187" cy="714593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6695,12 +6695,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6713,14 +6713,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
             <a:t>Michael Gold, Tech Support Supervisor</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3209991" y="1040231"/>
-        <a:ext cx="1325472" cy="662736"/>
+        <a:off x="3461164" y="1071453"/>
+        <a:ext cx="1429187" cy="714593"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A6EF98E3-BE2F-4408-A532-EC3067BC3C21}">
@@ -6730,8 +6730,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3541359" y="1981317"/>
-          <a:ext cx="1325472" cy="662736"/>
+          <a:off x="3818461" y="2086176"/>
+          <a:ext cx="1429187" cy="714593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6775,12 +6775,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8255" tIns="8255" rIns="8255" bIns="8255" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -6793,14 +6793,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
             <a:t>Ivan Soklov, Help Desk Technician </a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3541359" y="1981317"/>
-        <a:ext cx="1325472" cy="662736"/>
+        <a:off x="3818461" y="2086176"/>
+        <a:ext cx="1429187" cy="714593"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -10661,14 +10661,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10706,9 +10702,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10741,26 +10737,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10793,26 +10772,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10991,17 +10953,17 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -11012,7 +10974,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -11023,7 +10985,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -11044,7 +11006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -11064,7 +11026,7 @@
         <v>12788</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -11084,7 +11046,7 @@
         <v>7261</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -11104,7 +11066,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -11124,7 +11086,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -11144,7 +11106,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -11164,7 +11126,7 @@
         <v>6824</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -11184,7 +11146,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -11209,7 +11171,7 @@
         <v>40703</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -11217,6 +11179,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="B11:F11" formulaRange="1"/>
     <ignoredError sqref="B3:F3" numberStoredAsText="1"/>
@@ -11273,18 +11238,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -11296,56 +11258,56 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -11358,24 +11320,24 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
@@ -11387,56 +11349,56 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -11449,6 +11411,9 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
